--- a/data/trans_camb/P14_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14_3-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>8,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>5,23</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 7,43</t>
+          <t>0,0; 13,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 10,93</t>
+          <t>2,88; 17,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,66</t>
+          <t>2,2; 10,93</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>165,23%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>651,03%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,26; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>5,22</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 8,83</t>
+          <t>0,94; 12,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 5,14</t>
+          <t>1,06; 7,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,23</t>
+          <t>1,9; 8,76</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>121,82%</t>
+          <t>186,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>282,45%</t>
+          <t>418,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>162,2%</t>
+          <t>244,1%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 415,27</t>
+          <t>3,2; 771,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 1551,24</t>
+          <t>-17,74; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,03; 446,2</t>
+          <t>39,71; 715,21</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,02</t>
+          <t>5,53</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 10,53</t>
+          <t>-1,79; 12,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 11,75</t>
+          <t>-0,56; 11,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,41</t>
+          <t>0,77; 9,85</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>107,04%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>78,45%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>100,67%</t>
+          <t>84,74%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 335,63</t>
+          <t>-21,87; 381,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,56; 254,12</t>
+          <t>-11,85; 260,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,23; 203,1</t>
+          <t>6,92; 212,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,66; 7,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,43</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>119,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>165,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>140,4%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>33,38; 249,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>63,93; 362,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>70,5; 245,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5,57</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5,09</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 9,99</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 8,43</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 7,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>140,62%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>157,36%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>149,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>25,24; 381,07</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>37,93; 369,58</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>65,35; 306,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P14_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14_3-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,203 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,1</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,23</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.982540792717895</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.347780734462179</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.909264456914669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,64</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,88; 17,19</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 10,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.522673003963772</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.047572579089322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.28924441049813</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.78984556553871</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.2036365219898</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,34</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,03</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,22</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 12,73</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 7,99</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 8,76</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>186,1%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>418,11%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>244,1%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>5.699017509512231</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.267985966137551</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.022268449227417</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,2; 771,42</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-17,74; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>39,71; 715,21</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.6926366946891088</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.337031304398691</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.853289410900163</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,82</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,32</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,53</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.72058298588778</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.419158176926702</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.26785140388278</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,79; 12,77</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 11,72</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 9,85</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1.714194843589216</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>4.905216962754126</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>2.461663268266595</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>93,61%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>78,45%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>84,74%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.02133850208552842</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1304053230314707</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.4313837308932233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-21,87; 381,6</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-11,85; 260,23</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6,92; 212,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>7.560224400850214</v>
+      </c>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="n">
+        <v>7.083868668312262</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +767,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>6.10890931315715</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>5.390928255068888</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>5.717206428321128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-0.7766820919303484</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.2181092319229327</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>1.038831594891696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>13.18410517983147</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>11.81626248044202</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>10.117048707361</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1.056724991582306</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.8178207423891617</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.9186400780844969</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>5,57</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>5,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1493904954508465</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1214249439302791</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.106442397721625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 9,99</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>2,05; 8,43</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 7,81</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>4.131606903708765</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>2.598702380828471</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>2.240706409505299</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>140,62%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>157,36%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>149,22%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>5.345793846178705</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>5.113228828645447</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>5.227352727122566</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>25,24; 381,07</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>37,93; 369,58</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>65,35; 306,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>1.503245415079157</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>2.142489338548545</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>2.775343443131496</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>9.788192543320697</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>8.42613090542717</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>7.69055276616076</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>1.404331940052966</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1.662215363689599</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>1.529509682537241</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.2700582941012605</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.4207687778838006</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.6344977681907341</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>3.825737335407577</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>3.812469302614403</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>3.053251204742287</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
